--- a/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/income_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/income_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="208">
   <si>
     <t>date</t>
   </si>
@@ -136,9 +136,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>BBBY-FY-1992</t>
-  </si>
-  <si>
     <t>BBBY-FY-1993</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>0000886158</t>
   </si>
   <si>
-    <t>1992-02-29</t>
-  </si>
-  <si>
     <t>1993-02-28</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>2022-04-21</t>
   </si>
   <si>
-    <t>1992-02-28 19:00:00</t>
-  </si>
-  <si>
     <t>1993-02-27 19:00:00</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
   </si>
   <si>
     <t>2022-04-21 16:44:19</t>
-  </si>
-  <si>
-    <t>1992</t>
   </si>
   <si>
     <t>1993</t>
@@ -1024,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1157,40 +1145,40 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>33663</v>
+        <v>34028</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J2">
-        <v>167600000</v>
+        <v>216700000</v>
       </c>
       <c r="K2">
-        <v>95800000</v>
+        <v>123600000</v>
       </c>
       <c r="L2">
-        <v>71800000</v>
+        <v>93100000</v>
       </c>
       <c r="M2">
-        <v>0.428400954653938</v>
+        <v>0.4296262113520997</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1202,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>50400000</v>
+        <v>64200000</v>
       </c>
       <c r="R2">
-        <v>1800000</v>
+        <v>2600000</v>
       </c>
       <c r="S2">
-        <v>52200000</v>
+        <v>66800000</v>
       </c>
       <c r="T2">
-        <v>148000000</v>
+        <v>190400000</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1220,52 +1208,52 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1800000</v>
+        <v>2600000</v>
       </c>
       <c r="X2">
-        <v>21800000</v>
+        <v>29200000</v>
       </c>
       <c r="Y2">
-        <v>0.1300715990453461</v>
+        <v>0.1347485002307337</v>
       </c>
       <c r="Z2">
-        <v>19600000</v>
+        <v>26300000</v>
       </c>
       <c r="AA2">
-        <v>0.116945107398568</v>
+        <v>0.1213659437009691</v>
       </c>
       <c r="AB2">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="AC2">
-        <v>20000000</v>
+        <v>26600000</v>
       </c>
       <c r="AD2">
-        <v>0.1193317422434367</v>
+        <v>0.1227503461005999</v>
       </c>
       <c r="AE2">
-        <v>8000000</v>
+        <v>10600000</v>
       </c>
       <c r="AF2">
-        <v>12000000</v>
+        <v>16000000</v>
       </c>
       <c r="AG2">
-        <v>0.07159904534606205</v>
+        <v>0.07383479464697738</v>
       </c>
       <c r="AH2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AI2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AJ2">
-        <v>240000000</v>
+        <v>266666667</v>
       </c>
       <c r="AK2">
-        <v>240000000</v>
+        <v>266666667</v>
       </c>
       <c r="AN2">
-        <v>240000000</v>
+        <v>266666666.6666667</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1273,40 +1261,40 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>34028</v>
+        <v>34393</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J3">
-        <v>216700000</v>
+        <v>305800000</v>
       </c>
       <c r="K3">
-        <v>123600000</v>
+        <v>173600000</v>
       </c>
       <c r="L3">
-        <v>93100000</v>
+        <v>132200000</v>
       </c>
       <c r="M3">
-        <v>0.4296262113520997</v>
+        <v>0.4323086984957489</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1318,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>64200000</v>
+        <v>91400000</v>
       </c>
       <c r="R3">
-        <v>2600000</v>
+        <v>4200000</v>
       </c>
       <c r="S3">
-        <v>66800000</v>
+        <v>95600000</v>
       </c>
       <c r="T3">
-        <v>190400000</v>
+        <v>269200000</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1336,52 +1324,52 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2600000</v>
+        <v>4200000</v>
       </c>
       <c r="X3">
-        <v>29200000</v>
+        <v>41200000</v>
       </c>
       <c r="Y3">
-        <v>0.1347485002307337</v>
+        <v>0.1347285807717462</v>
       </c>
       <c r="Z3">
-        <v>26300000</v>
+        <v>36600000</v>
       </c>
       <c r="AA3">
-        <v>0.1213659437009691</v>
+        <v>0.1196860693263571</v>
       </c>
       <c r="AB3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="AC3">
-        <v>26600000</v>
+        <v>37000000</v>
       </c>
       <c r="AD3">
-        <v>0.1227503461005999</v>
+        <v>0.1209941137998692</v>
       </c>
       <c r="AE3">
-        <v>10600000</v>
+        <v>15100000</v>
       </c>
       <c r="AF3">
-        <v>16000000</v>
+        <v>21900000</v>
       </c>
       <c r="AG3">
-        <v>0.07383479464697738</v>
+        <v>0.07161543492478745</v>
       </c>
       <c r="AH3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AI3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AJ3">
-        <v>266666667</v>
+        <v>273750000</v>
       </c>
       <c r="AK3">
-        <v>266666667</v>
+        <v>273750000</v>
       </c>
       <c r="AN3">
-        <v>266666666.6666667</v>
+        <v>273750000</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1389,40 +1377,40 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>34393</v>
+        <v>34758</v>
       </c>
       <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J4">
-        <v>305800000</v>
+        <v>440300000</v>
       </c>
       <c r="K4">
-        <v>173600000</v>
+        <v>249200000</v>
       </c>
       <c r="L4">
-        <v>132200000</v>
+        <v>191100000</v>
       </c>
       <c r="M4">
-        <v>0.4323086984957489</v>
+        <v>0.4340222575516693</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1434,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>91400000</v>
+        <v>132500000</v>
       </c>
       <c r="R4">
-        <v>4200000</v>
+        <v>7200000</v>
       </c>
       <c r="S4">
-        <v>95600000</v>
+        <v>139700000</v>
       </c>
       <c r="T4">
-        <v>269200000</v>
+        <v>388900000</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1452,52 +1440,52 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4200000</v>
+        <v>7200000</v>
       </c>
       <c r="X4">
-        <v>41200000</v>
+        <v>58100000</v>
       </c>
       <c r="Y4">
-        <v>0.1347285807717462</v>
+        <v>0.1319554848966614</v>
       </c>
       <c r="Z4">
-        <v>36600000</v>
+        <v>51400000</v>
       </c>
       <c r="AA4">
-        <v>0.1196860693263571</v>
+        <v>0.1167385873268226</v>
       </c>
       <c r="AB4">
-        <v>400000</v>
+        <v>-500000</v>
       </c>
       <c r="AC4">
-        <v>37000000</v>
+        <v>50900000</v>
       </c>
       <c r="AD4">
-        <v>0.1209941137998692</v>
+        <v>0.1156029979559391</v>
       </c>
       <c r="AE4">
-        <v>15100000</v>
+        <v>20900000</v>
       </c>
       <c r="AF4">
-        <v>21900000</v>
+        <v>30000000</v>
       </c>
       <c r="AG4">
-        <v>0.07161543492478745</v>
+        <v>0.06813536225300931</v>
       </c>
       <c r="AH4">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AI4">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AJ4">
-        <v>273750000</v>
+        <v>272727273</v>
       </c>
       <c r="AK4">
-        <v>273750000</v>
+        <v>272727273</v>
       </c>
       <c r="AN4">
-        <v>273750000</v>
+        <v>272727272.7272727</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1505,40 +1493,40 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>34758</v>
+        <v>35124</v>
       </c>
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J5">
-        <v>440300000</v>
+        <v>601300000</v>
       </c>
       <c r="K5">
-        <v>249200000</v>
+        <v>341300000</v>
       </c>
       <c r="L5">
-        <v>191100000</v>
+        <v>260000000</v>
       </c>
       <c r="M5">
-        <v>0.4340222575516693</v>
+        <v>0.432396474305671</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1550,16 +1538,16 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>132500000</v>
+        <v>182500000</v>
       </c>
       <c r="R5">
-        <v>7200000</v>
+        <v>9900000</v>
       </c>
       <c r="S5">
-        <v>139700000</v>
+        <v>192400000</v>
       </c>
       <c r="T5">
-        <v>388900000</v>
+        <v>533700000</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1568,52 +1556,52 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>7200000</v>
+        <v>9900000</v>
       </c>
       <c r="X5">
-        <v>58100000</v>
+        <v>76800000</v>
       </c>
       <c r="Y5">
-        <v>0.1319554848966614</v>
+        <v>0.1277232662564444</v>
       </c>
       <c r="Z5">
-        <v>51400000</v>
+        <v>67600000</v>
       </c>
       <c r="AA5">
-        <v>0.1167385873268226</v>
+        <v>0.1124230833194745</v>
       </c>
       <c r="AB5">
-        <v>-500000</v>
+        <v>-700000</v>
       </c>
       <c r="AC5">
-        <v>50900000</v>
+        <v>66900000</v>
       </c>
       <c r="AD5">
-        <v>0.1156029979559391</v>
+        <v>0.1112589389655746</v>
       </c>
       <c r="AE5">
-        <v>20900000</v>
+        <v>27400000</v>
       </c>
       <c r="AF5">
-        <v>30000000</v>
+        <v>39500000</v>
       </c>
       <c r="AG5">
-        <v>0.06813536225300931</v>
+        <v>0.06569100282720772</v>
       </c>
       <c r="AH5">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AI5">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AJ5">
-        <v>272727273</v>
+        <v>263333333</v>
       </c>
       <c r="AK5">
-        <v>272727273</v>
+        <v>263333333</v>
       </c>
       <c r="AN5">
-        <v>272727272.7272727</v>
+        <v>263333333.3333333</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1621,40 +1609,40 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>35124</v>
+        <v>35490</v>
       </c>
       <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J6">
-        <v>601300000</v>
+        <v>823200000</v>
       </c>
       <c r="K6">
-        <v>341300000</v>
+        <v>468600000</v>
       </c>
       <c r="L6">
-        <v>260000000</v>
+        <v>354600000</v>
       </c>
       <c r="M6">
-        <v>0.432396474305671</v>
+        <v>0.4307580174927114</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1666,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>182500000</v>
+        <v>250600000</v>
       </c>
       <c r="R6">
-        <v>9900000</v>
+        <v>13400000</v>
       </c>
       <c r="S6">
-        <v>192400000</v>
+        <v>264000000</v>
       </c>
       <c r="T6">
-        <v>533700000</v>
+        <v>732600000</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1684,52 +1672,52 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>9900000</v>
+        <v>13400000</v>
       </c>
       <c r="X6">
-        <v>76800000</v>
+        <v>104700000</v>
       </c>
       <c r="Y6">
-        <v>0.1277232662564444</v>
+        <v>0.1271865889212828</v>
       </c>
       <c r="Z6">
-        <v>67600000</v>
+        <v>90600000</v>
       </c>
       <c r="AA6">
-        <v>0.1124230833194745</v>
+        <v>0.1100583090379009</v>
       </c>
       <c r="AB6">
-        <v>-700000</v>
+        <v>700000</v>
       </c>
       <c r="AC6">
-        <v>66900000</v>
+        <v>91300000</v>
       </c>
       <c r="AD6">
-        <v>0.1112589389655746</v>
+        <v>0.1109086491739553</v>
       </c>
       <c r="AE6">
-        <v>27400000</v>
+        <v>36300000</v>
       </c>
       <c r="AF6">
-        <v>39500000</v>
+        <v>55000000</v>
       </c>
       <c r="AG6">
-        <v>0.06569100282720772</v>
+        <v>0.06681243926141886</v>
       </c>
       <c r="AH6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AJ6">
-        <v>263333333</v>
+        <v>275000000</v>
       </c>
       <c r="AK6">
-        <v>263333333</v>
+        <v>275000000</v>
       </c>
       <c r="AN6">
-        <v>263333333.3333333</v>
+        <v>275000000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1737,40 +1725,40 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>35490</v>
+        <v>35854</v>
       </c>
       <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J7">
-        <v>823200000</v>
+        <v>1066600000</v>
       </c>
       <c r="K7">
-        <v>468600000</v>
+        <v>607400000</v>
       </c>
       <c r="L7">
-        <v>354600000</v>
+        <v>459200000</v>
       </c>
       <c r="M7">
-        <v>0.4307580174927114</v>
+        <v>0.4305269079317458</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1782,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>250600000</v>
+        <v>322100000</v>
       </c>
       <c r="R7">
-        <v>13400000</v>
+        <v>18200000</v>
       </c>
       <c r="S7">
-        <v>264000000</v>
+        <v>340300000</v>
       </c>
       <c r="T7">
-        <v>732600000</v>
+        <v>947700000</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1800,52 +1788,52 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>13400000</v>
+        <v>18200000</v>
       </c>
       <c r="X7">
-        <v>104700000</v>
+        <v>139600000</v>
       </c>
       <c r="Y7">
-        <v>0.1271865889212828</v>
+        <v>0.1308831801987624</v>
       </c>
       <c r="Z7">
-        <v>90600000</v>
+        <v>118900000</v>
       </c>
       <c r="AA7">
-        <v>0.1100583090379009</v>
+        <v>0.111475717232327</v>
       </c>
       <c r="AB7">
-        <v>700000</v>
+        <v>2500000</v>
       </c>
       <c r="AC7">
-        <v>91300000</v>
+        <v>121400000</v>
       </c>
       <c r="AD7">
-        <v>0.1109086491739553</v>
+        <v>0.1138196137258579</v>
       </c>
       <c r="AE7">
-        <v>36300000</v>
+        <v>48300000</v>
       </c>
       <c r="AF7">
-        <v>55000000</v>
+        <v>73100000</v>
       </c>
       <c r="AG7">
-        <v>0.06681243926141886</v>
+        <v>0.06853553347084193</v>
       </c>
       <c r="AH7">
-        <v>0.2</v>
+        <v>0.265</v>
       </c>
       <c r="AI7">
-        <v>0.2</v>
+        <v>0.2575</v>
       </c>
       <c r="AJ7">
-        <v>275000000</v>
+        <v>275329408</v>
       </c>
       <c r="AK7">
-        <v>275000000</v>
+        <v>284724036</v>
       </c>
       <c r="AN7">
-        <v>275000000</v>
+        <v>275849056.6037736</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1853,40 +1841,40 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>35854</v>
+        <v>36218</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J8">
-        <v>1066600000</v>
+        <v>1397200000</v>
       </c>
       <c r="K8">
-        <v>607400000</v>
+        <v>797900000</v>
       </c>
       <c r="L8">
-        <v>459200000</v>
+        <v>599300000</v>
       </c>
       <c r="M8">
-        <v>0.4305269079317458</v>
+        <v>0.42892928714572</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1898,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>322100000</v>
+        <v>418100000</v>
       </c>
       <c r="R8">
-        <v>18200000</v>
+        <v>23200000</v>
       </c>
       <c r="S8">
-        <v>340300000</v>
+        <v>441300000</v>
       </c>
       <c r="T8">
-        <v>947700000</v>
+        <v>1239200000</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1916,52 +1904,52 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>18200000</v>
+        <v>23200000</v>
       </c>
       <c r="X8">
-        <v>139600000</v>
+        <v>184700000</v>
       </c>
       <c r="Y8">
-        <v>0.1308831801987624</v>
+        <v>0.1321929573432579</v>
       </c>
       <c r="Z8">
-        <v>118900000</v>
+        <v>158000000</v>
       </c>
       <c r="AA8">
-        <v>0.111475717232327</v>
+        <v>0.113083309476095</v>
       </c>
       <c r="AB8">
-        <v>2500000</v>
+        <v>3500000</v>
       </c>
       <c r="AC8">
-        <v>121400000</v>
+        <v>161500000</v>
       </c>
       <c r="AD8">
-        <v>0.1138196137258579</v>
+        <v>0.1155883194961351</v>
       </c>
       <c r="AE8">
-        <v>48300000</v>
+        <v>64200000</v>
       </c>
       <c r="AF8">
-        <v>73100000</v>
+        <v>97300000</v>
       </c>
       <c r="AG8">
-        <v>0.06853553347084193</v>
+        <v>0.06963927855711423</v>
       </c>
       <c r="AH8">
-        <v>0.265</v>
+        <v>0.35</v>
       </c>
       <c r="AI8">
-        <v>0.2575</v>
+        <v>0.34</v>
       </c>
       <c r="AJ8">
-        <v>275329408</v>
+        <v>278000000</v>
       </c>
       <c r="AK8">
-        <v>284724036</v>
+        <v>286176471</v>
       </c>
       <c r="AN8">
-        <v>275849056.6037736</v>
+        <v>278000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1969,40 +1957,40 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>36218</v>
+        <v>36582</v>
       </c>
       <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J9">
-        <v>1397200000</v>
+        <v>1877966000</v>
       </c>
       <c r="K9">
-        <v>797900000</v>
+        <v>1079485000</v>
       </c>
       <c r="L9">
-        <v>599300000</v>
+        <v>798481000</v>
       </c>
       <c r="M9">
-        <v>0.42892928714572</v>
+        <v>0.4251839490171814</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2014,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>418100000</v>
+        <v>557516000</v>
       </c>
       <c r="R9">
-        <v>23200000</v>
+        <v>31625000</v>
       </c>
       <c r="S9">
-        <v>441300000</v>
+        <v>589141000</v>
       </c>
       <c r="T9">
-        <v>1239200000</v>
+        <v>1668626000</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2032,52 +2020,58 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>23200000</v>
+        <v>31625000</v>
       </c>
       <c r="X9">
-        <v>184700000</v>
+        <v>246755000</v>
       </c>
       <c r="Y9">
-        <v>0.1321929573432579</v>
+        <v>0.1313948175845569</v>
       </c>
       <c r="Z9">
-        <v>158000000</v>
+        <v>209340000</v>
       </c>
       <c r="AA9">
-        <v>0.113083309476095</v>
+        <v>0.1114716666861913</v>
       </c>
       <c r="AB9">
-        <v>3500000</v>
+        <v>5790000</v>
       </c>
       <c r="AC9">
-        <v>161500000</v>
+        <v>215130000</v>
       </c>
       <c r="AD9">
-        <v>0.1155883194961351</v>
+        <v>0.1145547895968298</v>
       </c>
       <c r="AE9">
-        <v>64200000</v>
+        <v>83901000</v>
       </c>
       <c r="AF9">
-        <v>97300000</v>
+        <v>131229000</v>
       </c>
       <c r="AG9">
-        <v>0.06963927855711423</v>
+        <v>0.06987826190676509</v>
       </c>
       <c r="AH9">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="AI9">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="AJ9">
-        <v>278000000</v>
+        <v>279930000</v>
       </c>
       <c r="AK9">
-        <v>286176471</v>
+        <v>288234000</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="AN9">
-        <v>278000000</v>
+        <v>279210638.2978724</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2085,40 +2079,40 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>36582</v>
+        <v>36953</v>
       </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J10">
-        <v>1877966000</v>
+        <v>2396655000</v>
       </c>
       <c r="K10">
-        <v>1079485000</v>
+        <v>1363546000</v>
       </c>
       <c r="L10">
-        <v>798481000</v>
+        <v>1033109000</v>
       </c>
       <c r="M10">
-        <v>0.4251839490171814</v>
+        <v>0.4310628772184565</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2130,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>557516000</v>
+        <v>713621000</v>
       </c>
       <c r="R10">
-        <v>31625000</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>589141000</v>
+        <v>713621000</v>
       </c>
       <c r="T10">
-        <v>1668626000</v>
+        <v>2077167000</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2148,58 +2142,58 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>31625000</v>
+        <v>46650000</v>
       </c>
       <c r="X10">
-        <v>246755000</v>
+        <v>328489000</v>
       </c>
       <c r="Y10">
-        <v>0.1313948175845569</v>
+        <v>0.1370614460571088</v>
       </c>
       <c r="Z10">
-        <v>209340000</v>
+        <v>272838000</v>
       </c>
       <c r="AA10">
-        <v>0.1114716666861913</v>
+        <v>0.1138411661252871</v>
       </c>
       <c r="AB10">
-        <v>5790000</v>
+        <v>9001000</v>
       </c>
       <c r="AC10">
-        <v>215130000</v>
+        <v>281839000</v>
       </c>
       <c r="AD10">
-        <v>0.1145547895968298</v>
+        <v>0.1175968172306819</v>
       </c>
       <c r="AE10">
-        <v>83901000</v>
+        <v>109917000</v>
       </c>
       <c r="AF10">
-        <v>131229000</v>
+        <v>171922000</v>
       </c>
       <c r="AG10">
-        <v>0.06987826190676509</v>
+        <v>0.07173414613283931</v>
       </c>
       <c r="AH10">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AI10">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="AJ10">
-        <v>279930000</v>
+        <v>283925000</v>
       </c>
       <c r="AK10">
-        <v>288234000</v>
+        <v>292876000</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AN10">
-        <v>279210638.2978724</v>
+        <v>281839344.2622951</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -2207,40 +2201,40 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>36953</v>
+        <v>37317</v>
       </c>
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J11">
-        <v>2396655000</v>
+        <v>2927962000</v>
       </c>
       <c r="K11">
-        <v>1363546000</v>
+        <v>1720396000</v>
       </c>
       <c r="L11">
-        <v>1033109000</v>
+        <v>1207566000</v>
       </c>
       <c r="M11">
-        <v>0.4310628772184565</v>
+        <v>0.4124254344830978</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2252,16 +2246,16 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>713621000</v>
+        <v>861466000</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>713621000</v>
+        <v>861466000</v>
       </c>
       <c r="T11">
-        <v>2077167000</v>
+        <v>2581862000</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2270,58 +2264,52 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>46650000</v>
+        <v>62547000</v>
       </c>
       <c r="X11">
-        <v>328489000</v>
+        <v>419619000</v>
       </c>
       <c r="Y11">
-        <v>0.1370614460571088</v>
+        <v>0.1433143599541251</v>
       </c>
       <c r="Z11">
-        <v>272838000</v>
+        <v>346100000</v>
       </c>
       <c r="AA11">
-        <v>0.1138411661252871</v>
+        <v>0.1182050859949685</v>
       </c>
       <c r="AB11">
-        <v>9001000</v>
+        <v>10972000</v>
       </c>
       <c r="AC11">
-        <v>281839000</v>
+        <v>357072000</v>
       </c>
       <c r="AD11">
-        <v>0.1175968172306819</v>
+        <v>0.1219524023877359</v>
       </c>
       <c r="AE11">
-        <v>109917000</v>
+        <v>137473000</v>
       </c>
       <c r="AF11">
-        <v>171922000</v>
+        <v>219599000</v>
       </c>
       <c r="AG11">
-        <v>0.07173414613283931</v>
+        <v>0.07500063183880119</v>
       </c>
       <c r="AH11">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="AI11">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="AJ11">
-        <v>283925000</v>
+        <v>298667000</v>
       </c>
       <c r="AK11">
-        <v>292876000</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>191</v>
+        <v>298667000</v>
       </c>
       <c r="AN11">
-        <v>281839344.2622951</v>
+        <v>288946052.6315789</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -2329,40 +2317,40 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>37317</v>
+        <v>37681</v>
       </c>
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J12">
-        <v>2927962000</v>
+        <v>3665164000</v>
       </c>
       <c r="K12">
-        <v>1720396000</v>
+        <v>2146617000</v>
       </c>
       <c r="L12">
-        <v>1207566000</v>
+        <v>1518547000</v>
       </c>
       <c r="M12">
-        <v>0.4124254344830978</v>
+        <v>0.4143189772681386</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2374,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>861466000</v>
+        <v>1038490000</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>861466000</v>
+        <v>1038490000</v>
       </c>
       <c r="T12">
-        <v>2581862000</v>
+        <v>3185107000</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2392,52 +2380,58 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>62547000</v>
+        <v>75810000</v>
       </c>
       <c r="X12">
-        <v>419619000</v>
+        <v>567158000</v>
       </c>
       <c r="Y12">
-        <v>0.1433143599541251</v>
+        <v>0.154742870987492</v>
       </c>
       <c r="Z12">
-        <v>346100000</v>
+        <v>480057000</v>
       </c>
       <c r="AA12">
-        <v>0.1182050859949685</v>
+        <v>0.1309783136579973</v>
       </c>
       <c r="AB12">
-        <v>10972000</v>
+        <v>11291000</v>
       </c>
       <c r="AC12">
-        <v>357072000</v>
+        <v>491348000</v>
       </c>
       <c r="AD12">
-        <v>0.1219524023877359</v>
+        <v>0.1340589397909616</v>
       </c>
       <c r="AE12">
-        <v>137473000</v>
+        <v>189169000</v>
       </c>
       <c r="AF12">
-        <v>219599000</v>
+        <v>302179000</v>
       </c>
       <c r="AG12">
-        <v>0.07500063183880119</v>
+        <v>0.08244624251465964</v>
       </c>
       <c r="AH12">
-        <v>0.76</v>
+        <v>1.03</v>
       </c>
       <c r="AI12">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>298667000</v>
+        <v>292927000</v>
       </c>
       <c r="AK12">
-        <v>298667000</v>
+        <v>301147000</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="AN12">
-        <v>288946052.6315789</v>
+        <v>293377669.9029126</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -2445,121 +2439,121 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>37681</v>
+        <v>38045</v>
       </c>
       <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13">
+        <v>4477981000</v>
+      </c>
+      <c r="K13">
+        <v>2601317000</v>
+      </c>
+      <c r="L13">
+        <v>1876664000</v>
+      </c>
+      <c r="M13">
+        <v>0.4190870841122372</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1237321000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1237321000</v>
+      </c>
+      <c r="T13">
+        <v>3838638000</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>85830000</v>
+      </c>
+      <c r="X13">
+        <v>735375000</v>
+      </c>
+      <c r="Y13">
+        <v>0.1642202144225266</v>
+      </c>
+      <c r="Z13">
+        <v>639343000</v>
+      </c>
+      <c r="AA13">
+        <v>0.1427748353554872</v>
+      </c>
+      <c r="AB13">
+        <v>10202000</v>
+      </c>
+      <c r="AC13">
+        <v>649545000</v>
+      </c>
+      <c r="AD13">
+        <v>0.1450530942404624</v>
+      </c>
+      <c r="AE13">
+        <v>250075000</v>
+      </c>
+      <c r="AF13">
+        <v>399470000</v>
+      </c>
+      <c r="AG13">
+        <v>0.08920761387777215</v>
+      </c>
+      <c r="AH13">
+        <v>1.35</v>
+      </c>
+      <c r="AI13">
+        <v>1.31</v>
+      </c>
+      <c r="AJ13">
+        <v>296854000</v>
+      </c>
+      <c r="AK13">
+        <v>304690000</v>
+      </c>
+      <c r="AL13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J13">
-        <v>3665164000</v>
-      </c>
-      <c r="K13">
-        <v>2146617000</v>
-      </c>
-      <c r="L13">
-        <v>1518547000</v>
-      </c>
-      <c r="M13">
-        <v>0.4143189772681386</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1038490000</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>1038490000</v>
-      </c>
-      <c r="T13">
-        <v>3185107000</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>75810000</v>
-      </c>
-      <c r="X13">
-        <v>567158000</v>
-      </c>
-      <c r="Y13">
-        <v>0.154742870987492</v>
-      </c>
-      <c r="Z13">
-        <v>480057000</v>
-      </c>
-      <c r="AA13">
-        <v>0.1309783136579973</v>
-      </c>
-      <c r="AB13">
-        <v>11291000</v>
-      </c>
-      <c r="AC13">
-        <v>491348000</v>
-      </c>
-      <c r="AD13">
-        <v>0.1340589397909616</v>
-      </c>
-      <c r="AE13">
-        <v>189169000</v>
-      </c>
-      <c r="AF13">
-        <v>302179000</v>
-      </c>
-      <c r="AG13">
-        <v>0.08244624251465964</v>
-      </c>
-      <c r="AH13">
-        <v>1.03</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <v>292927000</v>
-      </c>
-      <c r="AK13">
-        <v>301147000</v>
-      </c>
-      <c r="AL13" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="AM13" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AN13">
-        <v>293377669.9029126</v>
+        <v>295903703.7037037</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2567,40 +2561,40 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>38045</v>
+        <v>38409</v>
       </c>
       <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J14">
-        <v>4477981000</v>
+        <v>5147678000</v>
       </c>
       <c r="K14">
-        <v>2601317000</v>
+        <v>2961377000</v>
       </c>
       <c r="L14">
-        <v>1876664000</v>
+        <v>2186301000</v>
       </c>
       <c r="M14">
-        <v>0.4190870841122372</v>
+        <v>0.4247159593121403</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2612,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1237321000</v>
+        <v>1393887000</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1237321000</v>
+        <v>1393887000</v>
       </c>
       <c r="T14">
-        <v>3838638000</v>
+        <v>4355264000</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2630,58 +2624,58 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>85830000</v>
+        <v>99148000</v>
       </c>
       <c r="X14">
-        <v>735375000</v>
+        <v>910335000</v>
       </c>
       <c r="Y14">
-        <v>0.1642202144225266</v>
+        <v>0.1768438119089811</v>
       </c>
       <c r="Z14">
-        <v>639343000</v>
+        <v>792414000</v>
       </c>
       <c r="AA14">
-        <v>0.1427748353554872</v>
+        <v>0.1539362019147274</v>
       </c>
       <c r="AB14">
-        <v>10202000</v>
+        <v>18773000</v>
       </c>
       <c r="AC14">
-        <v>649545000</v>
+        <v>811187000</v>
       </c>
       <c r="AD14">
-        <v>0.1450530942404624</v>
+        <v>0.1575830889189262</v>
       </c>
       <c r="AE14">
-        <v>250075000</v>
+        <v>306223000</v>
       </c>
       <c r="AF14">
-        <v>399470000</v>
+        <v>504964000</v>
       </c>
       <c r="AG14">
-        <v>0.08920761387777215</v>
+        <v>0.09809549082129845</v>
       </c>
       <c r="AH14">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AI14">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="AJ14">
-        <v>296854000</v>
+        <v>300743000</v>
       </c>
       <c r="AK14">
-        <v>304690000</v>
+        <v>306642000</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN14">
-        <v>295903703.7037037</v>
+        <v>300573809.5238096</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -2689,40 +2683,40 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>38409</v>
+        <v>38773</v>
       </c>
       <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J15">
-        <v>5147678000</v>
+        <v>5809562000</v>
       </c>
       <c r="K15">
-        <v>2961377000</v>
+        <v>3323814000</v>
       </c>
       <c r="L15">
-        <v>2186301000</v>
+        <v>2485748000</v>
       </c>
       <c r="M15">
-        <v>0.4247159593121403</v>
+        <v>0.4278718430064091</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2734,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1393887000</v>
+        <v>1606577000</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1393887000</v>
+        <v>1606577000</v>
       </c>
       <c r="T15">
-        <v>4355264000</v>
+        <v>4930391000</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2752,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>99148000</v>
+        <v>114283000</v>
       </c>
       <c r="X15">
-        <v>910335000</v>
+        <v>1029374000</v>
       </c>
       <c r="Y15">
-        <v>0.1768438119089811</v>
+        <v>0.177186163087682</v>
       </c>
       <c r="Z15">
-        <v>792414000</v>
+        <v>879171000</v>
       </c>
       <c r="AA15">
-        <v>0.1539362019147274</v>
+        <v>0.1513317182947699</v>
       </c>
       <c r="AB15">
-        <v>18773000</v>
+        <v>35920000</v>
       </c>
       <c r="AC15">
-        <v>811187000</v>
+        <v>915091000</v>
       </c>
       <c r="AD15">
-        <v>0.1575830889189262</v>
+        <v>0.1575146284694096</v>
       </c>
       <c r="AE15">
-        <v>306223000</v>
+        <v>342244000</v>
       </c>
       <c r="AF15">
-        <v>504964000</v>
+        <v>572847000</v>
       </c>
       <c r="AG15">
-        <v>0.09809549082129845</v>
+        <v>0.09860416327427093</v>
       </c>
       <c r="AH15">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AI15">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="AJ15">
-        <v>300743000</v>
+        <v>293899000</v>
       </c>
       <c r="AK15">
-        <v>306642000</v>
+        <v>298973000</v>
       </c>
       <c r="AL15" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AM15" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN15">
-        <v>300573809.5238096</v>
+        <v>293767692.3076923</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2811,40 +2805,40 @@
         <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>38773</v>
+        <v>39144</v>
       </c>
       <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J16">
-        <v>5809562000</v>
+        <v>6617429000</v>
       </c>
       <c r="K16">
-        <v>3323814000</v>
+        <v>3782027000</v>
       </c>
       <c r="L16">
-        <v>2485748000</v>
+        <v>2835402000</v>
       </c>
       <c r="M16">
-        <v>0.4278718430064091</v>
+        <v>0.4284748653895644</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2856,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1606577000</v>
+        <v>1946001000</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1606577000</v>
+        <v>1946001000</v>
       </c>
       <c r="T16">
-        <v>4930391000</v>
+        <v>5728028000</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2874,58 +2868,58 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>114283000</v>
+        <v>136487000</v>
       </c>
       <c r="X16">
-        <v>1029374000</v>
+        <v>1069366000</v>
       </c>
       <c r="Y16">
-        <v>0.177186163087682</v>
+        <v>0.1615984092915844</v>
       </c>
       <c r="Z16">
-        <v>879171000</v>
+        <v>889401000</v>
       </c>
       <c r="AA16">
-        <v>0.1513317182947699</v>
+        <v>0.1344028020549975</v>
       </c>
       <c r="AB16">
-        <v>35920000</v>
+        <v>43478000</v>
       </c>
       <c r="AC16">
-        <v>915091000</v>
+        <v>932879000</v>
       </c>
       <c r="AD16">
-        <v>0.1575146284694096</v>
+        <v>0.1409730274401131</v>
       </c>
       <c r="AE16">
-        <v>342244000</v>
+        <v>338635000</v>
       </c>
       <c r="AF16">
-        <v>572847000</v>
+        <v>594244000</v>
       </c>
       <c r="AG16">
-        <v>0.09860416327427093</v>
+        <v>0.089799830115291</v>
       </c>
       <c r="AH16">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="AI16">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="AJ16">
-        <v>293899000</v>
+        <v>280199000</v>
       </c>
       <c r="AK16">
-        <v>298973000</v>
+        <v>284956000</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN16">
-        <v>293767692.3076923</v>
+        <v>280303773.5849056</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2933,40 +2927,40 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>39144</v>
+        <v>39508</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J17">
-        <v>6617429000</v>
+        <v>7048942000</v>
       </c>
       <c r="K17">
-        <v>3782027000</v>
+        <v>4123711000</v>
       </c>
       <c r="L17">
-        <v>2835402000</v>
+        <v>2925231000</v>
       </c>
       <c r="M17">
-        <v>0.4284748653895644</v>
+        <v>0.4149886607096497</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2978,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1946001000</v>
+        <v>2087209000</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1946001000</v>
+        <v>2087209000</v>
       </c>
       <c r="T17">
-        <v>5728028000</v>
+        <v>6210920000</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2996,58 +2990,58 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>136487000</v>
+        <v>159308000</v>
       </c>
       <c r="X17">
-        <v>1069366000</v>
+        <v>1024540000</v>
       </c>
       <c r="Y17">
-        <v>0.1615984092915844</v>
+        <v>0.1453466349985572</v>
       </c>
       <c r="Z17">
-        <v>889401000</v>
+        <v>838022000</v>
       </c>
       <c r="AA17">
-        <v>0.1344028020549975</v>
+        <v>0.118886210157496</v>
       </c>
       <c r="AB17">
-        <v>43478000</v>
+        <v>27210000</v>
       </c>
       <c r="AC17">
-        <v>932879000</v>
+        <v>865232000</v>
       </c>
       <c r="AD17">
-        <v>0.1409730274401131</v>
+        <v>0.1227463639224156</v>
       </c>
       <c r="AE17">
-        <v>338635000</v>
+        <v>302424000</v>
       </c>
       <c r="AF17">
-        <v>594244000</v>
+        <v>562808000</v>
       </c>
       <c r="AG17">
-        <v>0.089799830115291</v>
+        <v>0.07984290408404553</v>
       </c>
       <c r="AH17">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="AI17">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="AJ17">
-        <v>280199000</v>
+        <v>264824000</v>
       </c>
       <c r="AK17">
-        <v>284956000</v>
+        <v>268409000</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AN17">
-        <v>280303773.5849056</v>
+        <v>264229107.9812207</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3055,40 +3049,40 @@
         <v>56</v>
       </c>
       <c r="B18" s="2">
-        <v>39508</v>
+        <v>39872</v>
       </c>
       <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J18">
-        <v>7048942000</v>
+        <v>7208340000</v>
       </c>
       <c r="K18">
-        <v>4123711000</v>
+        <v>4335104000</v>
       </c>
       <c r="L18">
-        <v>2925231000</v>
+        <v>2873236000</v>
       </c>
       <c r="M18">
-        <v>0.4149886607096497</v>
+        <v>0.3985988452265015</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3100,16 +3094,16 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2087209000</v>
+        <v>2199340000</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>2087209000</v>
+        <v>2199340000</v>
       </c>
       <c r="T18">
-        <v>6210920000</v>
+        <v>6534444000</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -3118,58 +3112,58 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>159308000</v>
+        <v>175601000</v>
       </c>
       <c r="X18">
-        <v>1024540000</v>
+        <v>858909000</v>
       </c>
       <c r="Y18">
-        <v>0.1453466349985572</v>
+        <v>0.1191548955792873</v>
       </c>
       <c r="Z18">
-        <v>838022000</v>
+        <v>673896000</v>
       </c>
       <c r="AA18">
-        <v>0.118886210157496</v>
+        <v>0.09348837596450778</v>
       </c>
       <c r="AB18">
-        <v>27210000</v>
+        <v>9412000</v>
       </c>
       <c r="AC18">
-        <v>865232000</v>
+        <v>683308000</v>
       </c>
       <c r="AD18">
-        <v>0.1227463639224156</v>
+        <v>0.09479408573957389</v>
       </c>
       <c r="AE18">
-        <v>302424000</v>
+        <v>258185000</v>
       </c>
       <c r="AF18">
-        <v>562808000</v>
+        <v>425123000</v>
       </c>
       <c r="AG18">
-        <v>0.07984290408404553</v>
+        <v>0.05897654661128637</v>
       </c>
       <c r="AH18">
-        <v>2.13</v>
+        <v>1.66</v>
       </c>
       <c r="AI18">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AJ18">
-        <v>264824000</v>
+        <v>256410000</v>
       </c>
       <c r="AK18">
-        <v>268409000</v>
+        <v>258619000</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AN18">
-        <v>264229107.9812207</v>
+        <v>256098192.7710843</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -3177,40 +3171,40 @@
         <v>57</v>
       </c>
       <c r="B19" s="2">
-        <v>39872</v>
+        <v>40236</v>
       </c>
       <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J19">
-        <v>7208340000</v>
+        <v>7828793000</v>
       </c>
       <c r="K19">
-        <v>4335104000</v>
+        <v>4620674000</v>
       </c>
       <c r="L19">
-        <v>2873236000</v>
+        <v>3208119000</v>
       </c>
       <c r="M19">
-        <v>0.3985988452265015</v>
+        <v>0.4097846245264117</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3222,76 +3216,76 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2199340000</v>
+        <v>2227432000</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>2199340000</v>
+        <v>2227432000</v>
       </c>
       <c r="T19">
-        <v>6534444000</v>
+        <v>6848106000</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>4568000</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>4568000</v>
       </c>
       <c r="W19">
-        <v>175601000</v>
+        <v>184232000</v>
       </c>
       <c r="X19">
-        <v>858909000</v>
+        <v>1174055000</v>
       </c>
       <c r="Y19">
-        <v>0.1191548955792873</v>
+        <v>0.1499662847133651</v>
       </c>
       <c r="Z19">
-        <v>673896000</v>
+        <v>980687000</v>
       </c>
       <c r="AA19">
-        <v>0.09348837596450778</v>
+        <v>0.1252666918131569</v>
       </c>
       <c r="AB19">
-        <v>9412000</v>
+        <v>4568000</v>
       </c>
       <c r="AC19">
-        <v>683308000</v>
+        <v>985255000</v>
       </c>
       <c r="AD19">
-        <v>0.09479408573957389</v>
+        <v>0.1258501789484024</v>
       </c>
       <c r="AE19">
-        <v>258185000</v>
+        <v>385222000</v>
       </c>
       <c r="AF19">
-        <v>425123000</v>
+        <v>600033000</v>
       </c>
       <c r="AG19">
-        <v>0.05897654661128637</v>
+        <v>0.07664438183510536</v>
       </c>
       <c r="AH19">
-        <v>1.66</v>
+        <v>2.33</v>
       </c>
       <c r="AI19">
-        <v>1.64</v>
+        <v>2.3</v>
       </c>
       <c r="AJ19">
-        <v>256410000</v>
+        <v>257755000</v>
       </c>
       <c r="AK19">
-        <v>258619000</v>
+        <v>260375000</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AN19">
-        <v>256098192.7710843</v>
+        <v>257524892.7038627</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -3299,40 +3293,40 @@
         <v>58</v>
       </c>
       <c r="B20" s="2">
-        <v>40236</v>
+        <v>40600</v>
       </c>
       <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J20">
-        <v>7828793000</v>
+        <v>8758503000</v>
       </c>
       <c r="K20">
-        <v>4620674000</v>
+        <v>5135574000</v>
       </c>
       <c r="L20">
-        <v>3208119000</v>
+        <v>3622929000</v>
       </c>
       <c r="M20">
-        <v>0.4097846245264117</v>
+        <v>0.4136470581787778</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3344,76 +3338,76 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2227432000</v>
+        <v>2334471000</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>2227432000</v>
+        <v>2334471000</v>
       </c>
       <c r="T20">
-        <v>6848106000</v>
+        <v>7470045000</v>
       </c>
       <c r="U20">
-        <v>4568000</v>
+        <v>4520000</v>
       </c>
       <c r="V20">
-        <v>4568000</v>
+        <v>4520000</v>
       </c>
       <c r="W20">
-        <v>184232000</v>
+        <v>183820000</v>
       </c>
       <c r="X20">
-        <v>1174055000</v>
+        <v>1481318000</v>
       </c>
       <c r="Y20">
-        <v>0.1499662847133651</v>
+        <v>0.1691291308571796</v>
       </c>
       <c r="Z20">
-        <v>980687000</v>
+        <v>1288458000</v>
       </c>
       <c r="AA20">
-        <v>0.1252666918131569</v>
+        <v>0.1471093861587991</v>
       </c>
       <c r="AB20">
-        <v>4568000</v>
+        <v>4520000</v>
       </c>
       <c r="AC20">
-        <v>985255000</v>
+        <v>1292978000</v>
       </c>
       <c r="AD20">
-        <v>0.1258501789484024</v>
+        <v>0.1476254560853607</v>
       </c>
       <c r="AE20">
-        <v>385222000</v>
+        <v>501645000</v>
       </c>
       <c r="AF20">
-        <v>600033000</v>
+        <v>791333000</v>
       </c>
       <c r="AG20">
-        <v>0.07664438183510536</v>
+        <v>0.09035025734420597</v>
       </c>
       <c r="AH20">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="AI20">
-        <v>2.3</v>
+        <v>3.07</v>
       </c>
       <c r="AJ20">
-        <v>257755000</v>
+        <v>254297000</v>
       </c>
       <c r="AK20">
-        <v>260375000</v>
+        <v>258079000</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN20">
-        <v>257524892.7038627</v>
+        <v>254447909.9678457</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3421,40 +3415,40 @@
         <v>59</v>
       </c>
       <c r="B21" s="2">
-        <v>40600</v>
+        <v>40964</v>
       </c>
       <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J21">
-        <v>8758503000</v>
+        <v>9499890000</v>
       </c>
       <c r="K21">
-        <v>5135574000</v>
+        <v>5568957000</v>
       </c>
       <c r="L21">
-        <v>3622929000</v>
+        <v>3930933000</v>
       </c>
       <c r="M21">
-        <v>0.4136470581787778</v>
+        <v>0.4137872122729842</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3466,76 +3460,76 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2334471000</v>
+        <v>2362564000</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>2334471000</v>
+        <v>2362564000</v>
       </c>
       <c r="T21">
-        <v>7470045000</v>
+        <v>7931521000</v>
       </c>
       <c r="U21">
-        <v>4520000</v>
+        <v>1119000</v>
       </c>
       <c r="V21">
-        <v>4520000</v>
+        <v>1119000</v>
       </c>
       <c r="W21">
-        <v>183820000</v>
+        <v>183873000</v>
       </c>
       <c r="X21">
-        <v>1481318000</v>
+        <v>1754480000</v>
       </c>
       <c r="Y21">
-        <v>0.1691291308571796</v>
+        <v>0.1846842437122956</v>
       </c>
       <c r="Z21">
-        <v>1288458000</v>
+        <v>1568369000</v>
       </c>
       <c r="AA21">
-        <v>0.1471093861587991</v>
+        <v>0.1650933852918297</v>
       </c>
       <c r="AB21">
-        <v>4520000</v>
+        <v>1119000</v>
       </c>
       <c r="AC21">
-        <v>1292978000</v>
+        <v>1569488000</v>
       </c>
       <c r="AD21">
-        <v>0.1476254560853607</v>
+        <v>0.1652111761294078</v>
       </c>
       <c r="AE21">
-        <v>501645000</v>
+        <v>579951000</v>
       </c>
       <c r="AF21">
-        <v>791333000</v>
+        <v>989537000</v>
       </c>
       <c r="AG21">
-        <v>0.09035025734420597</v>
+        <v>0.1041629955715277</v>
       </c>
       <c r="AH21">
-        <v>3.11</v>
+        <v>4.12</v>
       </c>
       <c r="AI21">
-        <v>3.07</v>
+        <v>4.06</v>
       </c>
       <c r="AJ21">
-        <v>254297000</v>
+        <v>240016000</v>
       </c>
       <c r="AK21">
-        <v>258079000</v>
+        <v>243890000</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AN21">
-        <v>254447909.9678457</v>
+        <v>240178883.4951456</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3543,40 +3537,40 @@
         <v>60</v>
       </c>
       <c r="B22" s="2">
-        <v>40964</v>
+        <v>41335</v>
       </c>
       <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J22">
-        <v>9499890000</v>
+        <v>10914585000</v>
       </c>
       <c r="K22">
-        <v>5568957000</v>
+        <v>6525830000</v>
       </c>
       <c r="L22">
-        <v>3930933000</v>
+        <v>4388755000</v>
       </c>
       <c r="M22">
-        <v>0.4137872122729842</v>
+        <v>0.4021000340370248</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3588,76 +3582,76 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2362564000</v>
+        <v>2750537000</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2362564000</v>
+        <v>2750537000</v>
       </c>
       <c r="T22">
-        <v>7931521000</v>
+        <v>9276367000</v>
       </c>
       <c r="U22">
-        <v>1119000</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1119000</v>
+        <v>4159000</v>
       </c>
       <c r="W22">
-        <v>183873000</v>
+        <v>194728000</v>
       </c>
       <c r="X22">
-        <v>1754480000</v>
+        <v>1832946000</v>
       </c>
       <c r="Y22">
-        <v>0.1846842437122956</v>
+        <v>0.16793547349716</v>
       </c>
       <c r="Z22">
-        <v>1568369000</v>
+        <v>1638218000</v>
       </c>
       <c r="AA22">
-        <v>0.1650933852918297</v>
+        <v>0.1500943920451396</v>
       </c>
       <c r="AB22">
-        <v>1119000</v>
+        <v>-4159000</v>
       </c>
       <c r="AC22">
-        <v>1569488000</v>
+        <v>1634059000</v>
       </c>
       <c r="AD22">
-        <v>0.1652111761294078</v>
+        <v>0.1497133422846585</v>
       </c>
       <c r="AE22">
-        <v>579951000</v>
+        <v>596271000</v>
       </c>
       <c r="AF22">
-        <v>989537000</v>
+        <v>1037788000</v>
       </c>
       <c r="AG22">
-        <v>0.1041629955715277</v>
+        <v>0.09508268065162349</v>
       </c>
       <c r="AH22">
-        <v>4.12</v>
+        <v>4.62</v>
       </c>
       <c r="AI22">
-        <v>4.06</v>
+        <v>4.56</v>
       </c>
       <c r="AJ22">
-        <v>240016000</v>
+        <v>224623000</v>
       </c>
       <c r="AK22">
-        <v>243890000</v>
+        <v>227723000</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AN22">
-        <v>240178883.4951456</v>
+        <v>224629437.2294372</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3665,40 +3659,40 @@
         <v>61</v>
       </c>
       <c r="B23" s="2">
-        <v>41335</v>
+        <v>41699</v>
       </c>
       <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J23">
-        <v>10914585000</v>
+        <v>11503963000</v>
       </c>
       <c r="K23">
-        <v>6525830000</v>
+        <v>6938381000</v>
       </c>
       <c r="L23">
-        <v>4388755000</v>
+        <v>4565582000</v>
       </c>
       <c r="M23">
-        <v>0.4021000340370248</v>
+        <v>0.3968703654557999</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3710,76 +3704,76 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2750537000</v>
+        <v>2950995000</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>2750537000</v>
+        <v>2950995000</v>
       </c>
       <c r="T23">
-        <v>9276367000</v>
+        <v>9889376000</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>4159000</v>
+        <v>1140000</v>
       </c>
       <c r="W23">
-        <v>194728000</v>
+        <v>218809000</v>
       </c>
       <c r="X23">
-        <v>1832946000</v>
+        <v>1833396000</v>
       </c>
       <c r="Y23">
-        <v>0.16793547349716</v>
+        <v>0.1593708185605256</v>
       </c>
       <c r="Z23">
-        <v>1638218000</v>
+        <v>1614587000</v>
       </c>
       <c r="AA23">
-        <v>0.1500943920451396</v>
+        <v>0.140350503561251</v>
       </c>
       <c r="AB23">
-        <v>-4159000</v>
+        <v>-1140000</v>
       </c>
       <c r="AC23">
-        <v>1634059000</v>
+        <v>1613447000</v>
       </c>
       <c r="AD23">
-        <v>0.1497133422846585</v>
+        <v>0.14025140727591</v>
       </c>
       <c r="AE23">
-        <v>596271000</v>
+        <v>591157000</v>
       </c>
       <c r="AF23">
-        <v>1037788000</v>
+        <v>1022290000</v>
       </c>
       <c r="AG23">
-        <v>0.09508268065162349</v>
+        <v>0.08886415924668742</v>
       </c>
       <c r="AH23">
-        <v>4.62</v>
+        <v>4.85</v>
       </c>
       <c r="AI23">
-        <v>4.56</v>
+        <v>4.79</v>
       </c>
       <c r="AJ23">
-        <v>224623000</v>
+        <v>210710000</v>
       </c>
       <c r="AK23">
-        <v>227723000</v>
+        <v>213363000</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AN23">
-        <v>224629437.2294372</v>
+        <v>210781443.2989691</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3787,40 +3781,40 @@
         <v>62</v>
       </c>
       <c r="B24" s="2">
-        <v>41699</v>
+        <v>42063</v>
       </c>
       <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J24">
-        <v>11503963000</v>
+        <v>11881176000</v>
       </c>
       <c r="K24">
-        <v>6938381000</v>
+        <v>7261397000</v>
       </c>
       <c r="L24">
-        <v>4565582000</v>
+        <v>4619779000</v>
       </c>
       <c r="M24">
-        <v>0.3968703654557999</v>
+        <v>0.3888317957750984</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3832,76 +3826,76 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2950995000</v>
+        <v>3065486000</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>2950995000</v>
+        <v>3065486000</v>
       </c>
       <c r="T24">
-        <v>9889376000</v>
+        <v>10326883000</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>1140000</v>
+        <v>50458000</v>
       </c>
       <c r="W24">
-        <v>218809000</v>
+        <v>239193000</v>
       </c>
       <c r="X24">
-        <v>1833396000</v>
+        <v>1793486000</v>
       </c>
       <c r="Y24">
-        <v>0.1593708185605256</v>
+        <v>0.1509518923042635</v>
       </c>
       <c r="Z24">
-        <v>1614587000</v>
+        <v>1554293000</v>
       </c>
       <c r="AA24">
-        <v>0.140350503561251</v>
+        <v>0.1308197942695235</v>
       </c>
       <c r="AB24">
-        <v>-1140000</v>
+        <v>-50458000</v>
       </c>
       <c r="AC24">
-        <v>1613447000</v>
+        <v>1503835000</v>
       </c>
       <c r="AD24">
-        <v>0.14025140727591</v>
+        <v>0.1265729082710331</v>
       </c>
       <c r="AE24">
-        <v>591157000</v>
+        <v>546361000</v>
       </c>
       <c r="AF24">
-        <v>1022290000</v>
+        <v>957474000</v>
       </c>
       <c r="AG24">
-        <v>0.08886415924668742</v>
+        <v>0.08058747719922674</v>
       </c>
       <c r="AH24">
-        <v>4.85</v>
+        <v>5.13</v>
       </c>
       <c r="AI24">
-        <v>4.79</v>
+        <v>5.07</v>
       </c>
       <c r="AJ24">
-        <v>210710000</v>
+        <v>186659000</v>
       </c>
       <c r="AK24">
-        <v>213363000</v>
+        <v>188880000</v>
       </c>
       <c r="AL24" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AM24" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AN24">
-        <v>210781443.2989691</v>
+        <v>186642105.2631579</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3909,40 +3903,40 @@
         <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>42063</v>
+        <v>42427</v>
       </c>
       <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>72</v>
       </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J25">
-        <v>11881176000</v>
+        <v>12103887000</v>
       </c>
       <c r="K25">
-        <v>7261397000</v>
+        <v>7483577000</v>
       </c>
       <c r="L25">
-        <v>4619779000</v>
+        <v>4620310000</v>
       </c>
       <c r="M25">
-        <v>0.3888317957750984</v>
+        <v>0.3817211776679673</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3954,76 +3948,76 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3065486000</v>
+        <v>3205407000</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>3065486000</v>
+        <v>3205407000</v>
       </c>
       <c r="T25">
-        <v>10326883000</v>
+        <v>10688984000</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>50458000</v>
+        <v>87458000</v>
       </c>
       <c r="W25">
-        <v>239193000</v>
+        <v>273947000</v>
       </c>
       <c r="X25">
-        <v>1793486000</v>
+        <v>1688850000</v>
       </c>
       <c r="Y25">
-        <v>0.1509518923042635</v>
+        <v>0.1395295577362875</v>
       </c>
       <c r="Z25">
-        <v>1554293000</v>
+        <v>1414903000</v>
       </c>
       <c r="AA25">
-        <v>0.1308197942695235</v>
+        <v>0.1168965804125567</v>
       </c>
       <c r="AB25">
-        <v>-50458000</v>
+        <v>-87458000</v>
       </c>
       <c r="AC25">
-        <v>1503835000</v>
+        <v>1327445000</v>
       </c>
       <c r="AD25">
-        <v>0.1265729082710331</v>
+        <v>0.1096709676817042</v>
       </c>
       <c r="AE25">
-        <v>546361000</v>
+        <v>485956000</v>
       </c>
       <c r="AF25">
-        <v>957474000</v>
+        <v>841489000</v>
       </c>
       <c r="AG25">
-        <v>0.08058747719922674</v>
+        <v>0.06952221216209305</v>
       </c>
       <c r="AH25">
-        <v>5.13</v>
+        <v>5.15</v>
       </c>
       <c r="AI25">
-        <v>5.07</v>
+        <v>5.1</v>
       </c>
       <c r="AJ25">
-        <v>186659000</v>
+        <v>163257000</v>
       </c>
       <c r="AK25">
-        <v>188880000</v>
+        <v>165016000</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN25">
-        <v>186642105.2631579</v>
+        <v>163395922.3300971</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -4031,40 +4025,40 @@
         <v>64</v>
       </c>
       <c r="B26" s="2">
-        <v>42427</v>
+        <v>42791</v>
       </c>
       <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>72</v>
       </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J26">
-        <v>12103887000</v>
+        <v>12215757000</v>
       </c>
       <c r="K26">
-        <v>7483577000</v>
+        <v>7639407000</v>
       </c>
       <c r="L26">
-        <v>4620310000</v>
+        <v>4576350000</v>
       </c>
       <c r="M26">
-        <v>0.3817211776679673</v>
+        <v>0.3746268037257126</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -4076,76 +4070,76 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3205407000</v>
+        <v>3441140000</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>3205407000</v>
+        <v>3441140000</v>
       </c>
       <c r="T26">
-        <v>10688984000</v>
+        <v>11080547000</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>87458000</v>
+        <v>69555000</v>
       </c>
       <c r="W26">
-        <v>273947000</v>
+        <v>290914000</v>
       </c>
       <c r="X26">
-        <v>1688850000</v>
+        <v>1426124000</v>
       </c>
       <c r="Y26">
-        <v>0.1395295577362875</v>
+        <v>0.1167446274512501</v>
       </c>
       <c r="Z26">
-        <v>1414903000</v>
+        <v>1135210000</v>
       </c>
       <c r="AA26">
-        <v>0.1168965804125567</v>
+        <v>0.09292997560445906</v>
       </c>
       <c r="AB26">
-        <v>-87458000</v>
+        <v>-69555000</v>
       </c>
       <c r="AC26">
-        <v>1327445000</v>
+        <v>1065655000</v>
       </c>
       <c r="AD26">
-        <v>0.1096709676817042</v>
+        <v>0.08723610006322162</v>
       </c>
       <c r="AE26">
-        <v>485956000</v>
+        <v>380547000</v>
       </c>
       <c r="AF26">
-        <v>841489000</v>
+        <v>685108000</v>
       </c>
       <c r="AG26">
-        <v>0.06952221216209305</v>
+        <v>0.05608395779320103</v>
       </c>
       <c r="AH26">
-        <v>5.15</v>
+        <v>4.61</v>
       </c>
       <c r="AI26">
-        <v>5.1</v>
+        <v>4.58</v>
       </c>
       <c r="AJ26">
-        <v>163257000</v>
+        <v>148590000</v>
       </c>
       <c r="AK26">
-        <v>165016000</v>
+        <v>149708000</v>
       </c>
       <c r="AL26" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AM26" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AN26">
-        <v>163395922.3300971</v>
+        <v>148613449.0238612</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4153,40 +4147,40 @@
         <v>65</v>
       </c>
       <c r="B27" s="2">
-        <v>42791</v>
+        <v>43162</v>
       </c>
       <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J27">
-        <v>12215757000</v>
+        <v>12349301000</v>
       </c>
       <c r="K27">
-        <v>7639407000</v>
+        <v>7906286000</v>
       </c>
       <c r="L27">
-        <v>4576350000</v>
+        <v>4443015000</v>
       </c>
       <c r="M27">
-        <v>0.3746268037257126</v>
+        <v>0.3597786627761361</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4198,76 +4192,76 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3441140000</v>
+        <v>3681694000</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>3441140000</v>
+        <v>3681694000</v>
       </c>
       <c r="T27">
-        <v>11080547000</v>
+        <v>11587980000</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>69555000</v>
+        <v>65661000</v>
       </c>
       <c r="W27">
-        <v>290914000</v>
+        <v>313107000</v>
       </c>
       <c r="X27">
-        <v>1426124000</v>
+        <v>1074428000</v>
       </c>
       <c r="Y27">
-        <v>0.1167446274512501</v>
+        <v>0.08700314293092379</v>
       </c>
       <c r="Z27">
-        <v>1135210000</v>
+        <v>761321000</v>
       </c>
       <c r="AA27">
-        <v>0.09292997560445906</v>
+        <v>0.06164891437985032</v>
       </c>
       <c r="AB27">
-        <v>-69555000</v>
+        <v>-65661000</v>
       </c>
       <c r="AC27">
-        <v>1065655000</v>
+        <v>695660000</v>
       </c>
       <c r="AD27">
-        <v>0.08723610006322162</v>
+        <v>0.05633193328108206</v>
       </c>
       <c r="AE27">
-        <v>380547000</v>
+        <v>270802000</v>
       </c>
       <c r="AF27">
-        <v>685108000</v>
+        <v>424858000</v>
       </c>
       <c r="AG27">
-        <v>0.05608395779320103</v>
+        <v>0.03440340469472725</v>
       </c>
       <c r="AH27">
-        <v>4.61</v>
+        <v>3.05</v>
       </c>
       <c r="AI27">
-        <v>4.58</v>
+        <v>3.04</v>
       </c>
       <c r="AJ27">
-        <v>148590000</v>
+        <v>139238000</v>
       </c>
       <c r="AK27">
-        <v>149708000</v>
+        <v>139739000</v>
       </c>
       <c r="AL27" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AM27" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AN27">
-        <v>148613449.0238612</v>
+        <v>139297704.9180328</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -4275,40 +4269,40 @@
         <v>66</v>
       </c>
       <c r="B28" s="2">
-        <v>43162</v>
+        <v>43526</v>
       </c>
       <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>72</v>
       </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J28">
-        <v>12349301000</v>
+        <v>12028797000</v>
       </c>
       <c r="K28">
-        <v>7906286000</v>
+        <v>7924817000</v>
       </c>
       <c r="L28">
-        <v>4443015000</v>
+        <v>4103980000</v>
       </c>
       <c r="M28">
-        <v>0.3597786627761361</v>
+        <v>0.3411795876179471</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4320,76 +4314,76 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3681694000</v>
+        <v>3681210000</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>3681694000</v>
+        <v>3681210000</v>
       </c>
       <c r="T28">
-        <v>11587980000</v>
+        <v>11606027000</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>65661000</v>
+        <v>69474000</v>
       </c>
       <c r="W28">
-        <v>313107000</v>
+        <v>338825000</v>
       </c>
       <c r="X28">
-        <v>1074428000</v>
+        <v>251690000</v>
       </c>
       <c r="Y28">
-        <v>0.08700314293092379</v>
+        <v>0.02092395440707828</v>
       </c>
       <c r="Z28">
-        <v>761321000</v>
+        <v>-87135000</v>
       </c>
       <c r="AA28">
-        <v>0.06164891437985032</v>
+        <v>-0.007243866531291533</v>
       </c>
       <c r="AB28">
-        <v>-65661000</v>
+        <v>-69474000</v>
       </c>
       <c r="AC28">
-        <v>695660000</v>
+        <v>-156609000</v>
       </c>
       <c r="AD28">
-        <v>0.05633193328108206</v>
+        <v>-0.013019506439422</v>
       </c>
       <c r="AE28">
-        <v>270802000</v>
+        <v>-19385000</v>
       </c>
       <c r="AF28">
-        <v>424858000</v>
+        <v>-137224000</v>
       </c>
       <c r="AG28">
-        <v>0.03440340469472725</v>
+        <v>-0.01140795708831066</v>
       </c>
       <c r="AH28">
-        <v>3.05</v>
+        <v>-1.02</v>
       </c>
       <c r="AI28">
-        <v>3.04</v>
+        <v>-1.02</v>
       </c>
       <c r="AJ28">
-        <v>139238000</v>
+        <v>134292000</v>
       </c>
       <c r="AK28">
-        <v>139739000</v>
+        <v>134292000</v>
       </c>
       <c r="AL28" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AM28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AN28">
-        <v>139297704.9180328</v>
+        <v>134533333.3333333</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4397,40 +4391,40 @@
         <v>67</v>
       </c>
       <c r="B29" s="2">
-        <v>43526</v>
+        <v>43890</v>
       </c>
       <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
         <v>163</v>
       </c>
-      <c r="I29" t="s">
-        <v>167</v>
-      </c>
       <c r="J29">
-        <v>12028797000</v>
+        <v>11158580000</v>
       </c>
       <c r="K29">
-        <v>7924817000</v>
+        <v>7616920000</v>
       </c>
       <c r="L29">
-        <v>4103980000</v>
+        <v>3541660000</v>
       </c>
       <c r="M29">
-        <v>0.3411795876179471</v>
+        <v>0.3173934317807463</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4442,76 +4436,76 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3681210000</v>
+        <v>3732498000</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>3681210000</v>
+        <v>3732498000</v>
       </c>
       <c r="T29">
-        <v>11606027000</v>
+        <v>11349418000</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>69474000</v>
+        <v>64789000</v>
       </c>
       <c r="W29">
-        <v>338825000</v>
+        <v>342511000</v>
       </c>
       <c r="X29">
-        <v>251690000</v>
+        <v>-357553000</v>
       </c>
       <c r="Y29">
-        <v>0.02092395440707828</v>
+        <v>-0.03204287642334419</v>
       </c>
       <c r="Z29">
-        <v>-87135000</v>
+        <v>-700064000</v>
       </c>
       <c r="AA29">
-        <v>-0.007243866531291533</v>
+        <v>-0.06273773186193943</v>
       </c>
       <c r="AB29">
-        <v>-69474000</v>
+        <v>-64789000</v>
       </c>
       <c r="AC29">
-        <v>-156609000</v>
+        <v>-764853000</v>
       </c>
       <c r="AD29">
-        <v>-0.013019506439422</v>
+        <v>-0.06854393659408275</v>
       </c>
       <c r="AE29">
-        <v>-19385000</v>
+        <v>-151037000</v>
       </c>
       <c r="AF29">
-        <v>-137224000</v>
+        <v>-613816000</v>
       </c>
       <c r="AG29">
-        <v>-0.01140795708831066</v>
+        <v>-0.05500843297265422</v>
       </c>
       <c r="AH29">
-        <v>-1.02</v>
+        <v>-4.94</v>
       </c>
       <c r="AI29">
-        <v>-1.02</v>
+        <v>-4.94</v>
       </c>
       <c r="AJ29">
-        <v>134292000</v>
+        <v>124352000</v>
       </c>
       <c r="AK29">
-        <v>134292000</v>
+        <v>124352000</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN29">
-        <v>134533333.3333333</v>
+        <v>124254251.0121457</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -4519,40 +4513,40 @@
         <v>68</v>
       </c>
       <c r="B30" s="2">
-        <v>43890</v>
+        <v>44254</v>
       </c>
       <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J30">
-        <v>11158580000</v>
+        <v>9233028000</v>
       </c>
       <c r="K30">
-        <v>7616920000</v>
+        <v>6114947000</v>
       </c>
       <c r="L30">
-        <v>3541660000</v>
+        <v>3118081000</v>
       </c>
       <c r="M30">
-        <v>0.3173934317807463</v>
+        <v>0.3377094708258223</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -4564,76 +4558,76 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3732498000</v>
+        <v>3224363000</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>3732498000</v>
+        <v>3224363000</v>
       </c>
       <c r="T30">
-        <v>11349418000</v>
+        <v>9339310000</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>64789000</v>
+        <v>76913000</v>
       </c>
       <c r="W30">
-        <v>342511000</v>
+        <v>340912000</v>
       </c>
       <c r="X30">
-        <v>-357553000</v>
+        <v>81063000</v>
       </c>
       <c r="Y30">
-        <v>-0.03204287642334419</v>
+        <v>0.008779676613132767</v>
       </c>
       <c r="Z30">
-        <v>-700064000</v>
+        <v>-336887000</v>
       </c>
       <c r="AA30">
-        <v>-0.06273773186193943</v>
+        <v>-0.03648716325781748</v>
       </c>
       <c r="AB30">
-        <v>-64789000</v>
+        <v>125000</v>
       </c>
       <c r="AC30">
-        <v>-764853000</v>
+        <v>-336762000</v>
       </c>
       <c r="AD30">
-        <v>-0.06854393659408275</v>
+        <v>-0.03647362490398599</v>
       </c>
       <c r="AE30">
-        <v>-151037000</v>
+        <v>-185989000</v>
       </c>
       <c r="AF30">
-        <v>-613816000</v>
+        <v>-150773000</v>
       </c>
       <c r="AG30">
-        <v>-0.05500843297265422</v>
+        <v>-0.01632974577787482</v>
       </c>
       <c r="AH30">
-        <v>-4.94</v>
+        <v>-1.24</v>
       </c>
       <c r="AI30">
-        <v>-4.94</v>
+        <v>-1.24</v>
       </c>
       <c r="AJ30">
-        <v>124352000</v>
+        <v>121446000</v>
       </c>
       <c r="AK30">
-        <v>124352000</v>
+        <v>121446000</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN30">
-        <v>124254251.0121457</v>
+        <v>121591129.0322581</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4641,40 +4635,40 @@
         <v>69</v>
       </c>
       <c r="B31" s="2">
-        <v>44254</v>
+        <v>44618</v>
       </c>
       <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
         <v>71</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J31">
-        <v>9233028000</v>
+        <v>7867778000</v>
       </c>
       <c r="K31">
-        <v>6114947000</v>
+        <v>5384287000</v>
       </c>
       <c r="L31">
-        <v>3118081000</v>
+        <v>2483491000</v>
       </c>
       <c r="M31">
-        <v>0.3377094708258223</v>
+        <v>0.3156534157420303</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -4686,246 +4680,124 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3224363000</v>
+        <v>2692292000</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>3224363000</v>
+        <v>2692292000</v>
       </c>
       <c r="T31">
-        <v>9339310000</v>
+        <v>8076579000</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>76913000</v>
+        <v>64702000</v>
       </c>
       <c r="W31">
-        <v>340912000</v>
+        <v>293626000</v>
       </c>
       <c r="X31">
-        <v>81063000</v>
+        <v>-114328000</v>
       </c>
       <c r="Y31">
-        <v>0.008779676613132767</v>
+        <v>-0.01453116750370943</v>
       </c>
       <c r="Z31">
-        <v>-336887000</v>
+        <v>-407578000</v>
       </c>
       <c r="AA31">
-        <v>-0.03648716325781748</v>
+        <v>-0.05180344437781544</v>
       </c>
       <c r="AB31">
-        <v>125000</v>
+        <v>-65078000</v>
       </c>
       <c r="AC31">
-        <v>-336762000</v>
+        <v>-472656000</v>
       </c>
       <c r="AD31">
-        <v>-0.03647362490398599</v>
+        <v>-0.06007490297768951</v>
       </c>
       <c r="AE31">
-        <v>-185989000</v>
+        <v>86967000</v>
       </c>
       <c r="AF31">
-        <v>-150773000</v>
+        <v>-559623000</v>
       </c>
       <c r="AG31">
-        <v>-0.01632974577787482</v>
+        <v>-0.07112846854601133</v>
       </c>
       <c r="AH31">
-        <v>-1.24</v>
+        <v>-5.64</v>
       </c>
       <c r="AI31">
-        <v>-1.24</v>
+        <v>-5.64</v>
       </c>
       <c r="AJ31">
-        <v>121446000</v>
+        <v>99249000</v>
       </c>
       <c r="AK31">
-        <v>121446000</v>
+        <v>99249000</v>
       </c>
       <c r="AL31" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AN31">
-        <v>121591129.0322581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44618</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" t="s">
-        <v>166</v>
-      </c>
-      <c r="I32" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32">
-        <v>7867778000</v>
-      </c>
-      <c r="K32">
-        <v>5384287000</v>
-      </c>
-      <c r="L32">
-        <v>2483491000</v>
-      </c>
-      <c r="M32">
-        <v>0.3156534157420303</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>2692292000</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>2692292000</v>
-      </c>
-      <c r="T32">
-        <v>8076579000</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>64702000</v>
-      </c>
-      <c r="W32">
-        <v>293626000</v>
-      </c>
-      <c r="X32">
-        <v>-114328000</v>
-      </c>
-      <c r="Y32">
-        <v>-0.01453116750370943</v>
-      </c>
-      <c r="Z32">
-        <v>-407578000</v>
-      </c>
-      <c r="AA32">
-        <v>-0.05180344437781544</v>
-      </c>
-      <c r="AB32">
-        <v>-65078000</v>
-      </c>
-      <c r="AC32">
-        <v>-472656000</v>
-      </c>
-      <c r="AD32">
-        <v>-0.06007490297768951</v>
-      </c>
-      <c r="AE32">
-        <v>86967000</v>
-      </c>
-      <c r="AF32">
-        <v>-559623000</v>
-      </c>
-      <c r="AG32">
-        <v>-0.07112846854601133</v>
-      </c>
-      <c r="AH32">
-        <v>-5.64</v>
-      </c>
-      <c r="AI32">
-        <v>-5.64</v>
-      </c>
-      <c r="AJ32">
-        <v>99249000</v>
-      </c>
-      <c r="AK32">
-        <v>99249000</v>
-      </c>
-      <c r="AL32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM32" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN32">
         <v>99223936.17021278</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AL10" r:id="rId1"/>
-    <hyperlink ref="AM10" r:id="rId2"/>
-    <hyperlink ref="AL11" r:id="rId3"/>
-    <hyperlink ref="AM11" r:id="rId4"/>
-    <hyperlink ref="AL13" r:id="rId5"/>
-    <hyperlink ref="AM13" r:id="rId6"/>
-    <hyperlink ref="AL14" r:id="rId7"/>
-    <hyperlink ref="AM14" r:id="rId8"/>
-    <hyperlink ref="AL15" r:id="rId9"/>
-    <hyperlink ref="AM15" r:id="rId10"/>
-    <hyperlink ref="AL16" r:id="rId11"/>
-    <hyperlink ref="AM16" r:id="rId12"/>
-    <hyperlink ref="AL17" r:id="rId13"/>
-    <hyperlink ref="AM17" r:id="rId14"/>
-    <hyperlink ref="AL18" r:id="rId15"/>
-    <hyperlink ref="AM18" r:id="rId16"/>
-    <hyperlink ref="AL19" r:id="rId17"/>
-    <hyperlink ref="AM19" r:id="rId18"/>
-    <hyperlink ref="AL20" r:id="rId19"/>
-    <hyperlink ref="AM20" r:id="rId20"/>
-    <hyperlink ref="AL21" r:id="rId21"/>
-    <hyperlink ref="AM21" r:id="rId22"/>
-    <hyperlink ref="AL22" r:id="rId23"/>
-    <hyperlink ref="AM22" r:id="rId24"/>
-    <hyperlink ref="AL23" r:id="rId25"/>
-    <hyperlink ref="AM23" r:id="rId26"/>
-    <hyperlink ref="AL24" r:id="rId27"/>
-    <hyperlink ref="AM24" r:id="rId28"/>
-    <hyperlink ref="AL25" r:id="rId29"/>
-    <hyperlink ref="AM25" r:id="rId30"/>
-    <hyperlink ref="AL26" r:id="rId31"/>
-    <hyperlink ref="AM26" r:id="rId32"/>
-    <hyperlink ref="AL27" r:id="rId33"/>
-    <hyperlink ref="AM27" r:id="rId34"/>
-    <hyperlink ref="AL28" r:id="rId35"/>
-    <hyperlink ref="AM28" r:id="rId36"/>
-    <hyperlink ref="AL29" r:id="rId37"/>
-    <hyperlink ref="AM29" r:id="rId38"/>
-    <hyperlink ref="AL30" r:id="rId39"/>
-    <hyperlink ref="AM30" r:id="rId40"/>
-    <hyperlink ref="AL31" r:id="rId41"/>
-    <hyperlink ref="AM31" r:id="rId42"/>
-    <hyperlink ref="AL32" r:id="rId43"/>
-    <hyperlink ref="AM32" r:id="rId44"/>
+    <hyperlink ref="AL9" r:id="rId1"/>
+    <hyperlink ref="AM9" r:id="rId2"/>
+    <hyperlink ref="AL10" r:id="rId3"/>
+    <hyperlink ref="AM10" r:id="rId4"/>
+    <hyperlink ref="AL12" r:id="rId5"/>
+    <hyperlink ref="AM12" r:id="rId6"/>
+    <hyperlink ref="AL13" r:id="rId7"/>
+    <hyperlink ref="AM13" r:id="rId8"/>
+    <hyperlink ref="AL14" r:id="rId9"/>
+    <hyperlink ref="AM14" r:id="rId10"/>
+    <hyperlink ref="AL15" r:id="rId11"/>
+    <hyperlink ref="AM15" r:id="rId12"/>
+    <hyperlink ref="AL16" r:id="rId13"/>
+    <hyperlink ref="AM16" r:id="rId14"/>
+    <hyperlink ref="AL17" r:id="rId15"/>
+    <hyperlink ref="AM17" r:id="rId16"/>
+    <hyperlink ref="AL18" r:id="rId17"/>
+    <hyperlink ref="AM18" r:id="rId18"/>
+    <hyperlink ref="AL19" r:id="rId19"/>
+    <hyperlink ref="AM19" r:id="rId20"/>
+    <hyperlink ref="AL20" r:id="rId21"/>
+    <hyperlink ref="AM20" r:id="rId22"/>
+    <hyperlink ref="AL21" r:id="rId23"/>
+    <hyperlink ref="AM21" r:id="rId24"/>
+    <hyperlink ref="AL22" r:id="rId25"/>
+    <hyperlink ref="AM22" r:id="rId26"/>
+    <hyperlink ref="AL23" r:id="rId27"/>
+    <hyperlink ref="AM23" r:id="rId28"/>
+    <hyperlink ref="AL24" r:id="rId29"/>
+    <hyperlink ref="AM24" r:id="rId30"/>
+    <hyperlink ref="AL25" r:id="rId31"/>
+    <hyperlink ref="AM25" r:id="rId32"/>
+    <hyperlink ref="AL26" r:id="rId33"/>
+    <hyperlink ref="AM26" r:id="rId34"/>
+    <hyperlink ref="AL27" r:id="rId35"/>
+    <hyperlink ref="AM27" r:id="rId36"/>
+    <hyperlink ref="AL28" r:id="rId37"/>
+    <hyperlink ref="AM28" r:id="rId38"/>
+    <hyperlink ref="AL29" r:id="rId39"/>
+    <hyperlink ref="AM29" r:id="rId40"/>
+    <hyperlink ref="AL30" r:id="rId41"/>
+    <hyperlink ref="AM30" r:id="rId42"/>
+    <hyperlink ref="AL31" r:id="rId43"/>
+    <hyperlink ref="AM31" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
